--- a/Documents/Testresults/result.xlsx
+++ b/Documents/Testresults/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merdo\Desktop\BachelorThesis\Documents\Testresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD3EC82-289D-445D-90CA-2227286FAA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB46351-3E41-4231-8E12-33842CCD235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>true</t>
   </si>
@@ -119,6 +119,9 @@
   <si>
     <t>Test sytem 1 [4|4]</t>
   </si>
+  <si>
+    <t>5 [4|8]</t>
+  </si>
 </sst>
 </file>
 
@@ -143,8 +146,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1E1E1E"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,9 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,12 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -424,15 +419,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -452,6 +438,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,12 +478,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,7 +630,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -707,7 +711,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -2469,7 +2473,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -2550,7 +2554,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -2994,7 +2998,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -3075,7 +3079,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -3519,7 +3523,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -3600,7 +3604,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -4044,7 +4048,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -4125,7 +4129,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -4569,7 +4573,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -4650,7 +4654,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -5053,9 +5057,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12665421490367976"/>
+          <c:x val="0.1443498325294017"/>
           <c:y val="0.16720564584102166"/>
-          <c:w val="0.70257966616084988"/>
+          <c:w val="0.68488403389680153"/>
           <c:h val="0.6816460448836662"/>
         </c:manualLayout>
       </c:layout>
@@ -5094,7 +5098,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -5175,7 +5179,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -5578,9 +5582,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1354454995943585"/>
+          <c:x val="0.15595831537404392"/>
           <c:y val="0.16720564584102166"/>
-          <c:w val="0.70257966616084988"/>
+          <c:w val="0.68206681501731936"/>
           <c:h val="0.6816460448836662"/>
         </c:manualLayout>
       </c:layout>
@@ -5619,7 +5623,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -5700,7 +5704,7 @@
                   <c:v>1 [4|4]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5  [4|8]</c:v>
+                  <c:v>5 [4|8]</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2 [4|8]</c:v>
@@ -16648,13 +16652,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG56" sqref="AG56"/>
+    <sheetView tabSelected="1" topLeftCell="L25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="10" width="8.7109375" customWidth="1"/>
@@ -16672,187 +16676,187 @@
   <sheetData>
     <row r="2" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
-      <c r="S3" s="37" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
+      <c r="S3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="39"/>
-      <c r="AD3" s="40" t="s">
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="41"/>
+      <c r="AD3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="42"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="44"/>
     </row>
     <row r="4" spans="1:34" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="W4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="X4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="Y4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="AD4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="AE4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="AF4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AG4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="10" t="s">
+      <c r="AH4" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>7500</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="27" cm="1">
+      <c r="E5" s="36" cm="1">
         <f t="array" ref="E5:E20">[1]resultID1!$F$1:$F$16/100000</f>
         <v>5.0158699999999996</v>
       </c>
-      <c r="F5" s="28" cm="1">
+      <c r="F5" s="37" cm="1">
         <f t="array" ref="F5:F20">[2]resultID1!$F$1:$F$16/100000</f>
         <v>4.6719766666666667</v>
       </c>
-      <c r="G5" s="28" cm="1">
+      <c r="G5" s="37" cm="1">
         <f t="array" ref="G5:G20">[3]resultID1!$F$1:$F$16/100000</f>
         <v>1.0479033333333332</v>
       </c>
-      <c r="H5" s="28" cm="1">
+      <c r="H5" s="37" cm="1">
         <f t="array" ref="H5:H20">[4]resultID1!$F$1:$F$16/100000</f>
         <v>1.73112</v>
       </c>
-      <c r="I5" s="28" cm="1">
+      <c r="I5" s="37" cm="1">
         <f t="array" ref="I5:I20">[5]resultID1!$F$1:$F$16/100000</f>
         <v>1.4954433333333335</v>
       </c>
-      <c r="J5" s="28" cm="1">
+      <c r="J5" s="37" cm="1">
         <f t="array" ref="J5:J20">[6]resultID1!$F$1:$F$16/100000</f>
         <v>1.956955</v>
       </c>
-      <c r="K5" s="29" cm="1">
+      <c r="K5" s="38" cm="1">
         <f t="array" ref="K5:K20">[7]resultID1!$F$1:$F$16/100000</f>
         <v>1.66334</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="16">
         <v>0</v>
       </c>
       <c r="Q5" s="3">
         <v>7500</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="S5" s="12" cm="1">
+      <c r="S5" s="33" cm="1">
         <f t="array" ref="S5:S20">[1]resultID1!$E$1:$E$16</f>
         <v>550.03</v>
       </c>
-      <c r="T5" s="4" cm="1">
+      <c r="T5" s="34" cm="1">
         <f t="array" ref="T5:T20">[2]resultID1!$E$1:$E$16</f>
         <v>179.73000000000002</v>
       </c>
-      <c r="U5" s="4" cm="1">
+      <c r="U5" s="34" cm="1">
         <f t="array" ref="U5:U20">[3]resultID1!$E$1:$E$16</f>
         <v>2147.2233333333334</v>
       </c>
-      <c r="V5" s="4" cm="1">
+      <c r="V5" s="34" cm="1">
         <f t="array" ref="V5:V20">[4]resultID1!$E$1:$E$16</f>
         <v>2518.25</v>
       </c>
-      <c r="W5" s="4" cm="1">
+      <c r="W5" s="34" cm="1">
         <f t="array" ref="W5:W20">[5]resultID1!$E$1:$E$16</f>
         <v>1165.4566666666667</v>
       </c>
-      <c r="X5" s="4" cm="1">
+      <c r="X5" s="34" cm="1">
         <f t="array" ref="X5:X20">[6]resultID1!$E$1:$E$16</f>
         <v>611.68000000000006</v>
       </c>
-      <c r="Y5" s="13" cm="1">
+      <c r="Y5" s="35" cm="1">
         <f t="array" ref="Y5:Y20">[7]resultID1!$E$1:$E$16</f>
         <v>2352.7600000000002</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="16">
         <v>250</v>
       </c>
       <c r="AE5" s="3">
@@ -16861,1419 +16865,1419 @@
       <c r="AF5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AG5" s="43" cm="1">
+      <c r="AG5" s="31" cm="1">
         <f t="array" ref="AG5:AG28">[8]resultID1!$E$1:$E$24</f>
         <v>1531.32</v>
       </c>
-      <c r="AH5" s="44" cm="1">
+      <c r="AH5" s="32" cm="1">
         <f t="array" ref="AH5:AH28">[8]resultID1!$F$1:$F$24/100000</f>
         <v>3.0142699999999998</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="21">
+      <c r="B6" s="18">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>5000</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="24">
         <v>3.4418099999999998</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="25">
         <v>4.7033166666666668</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="25">
         <v>1.1061166666666666</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="25">
         <v>1.6539200000000001</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="25">
         <v>1.4315833333333334</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="25">
         <v>1.9836499999999999</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="26">
         <v>1.7315499999999999</v>
       </c>
-      <c r="P6" s="21">
+      <c r="P6" s="18">
         <v>10</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="4">
         <v>5000</v>
       </c>
-      <c r="R6" s="22" t="s">
+      <c r="R6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="11">
         <v>684.96</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>184.57666666666668</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>2147.9500000000003</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="5">
         <v>2640.55</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>1113.2466666666667</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="5">
         <v>636.875</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="12">
         <v>2367.34</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AD6" s="18">
         <v>500</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="4">
         <v>3000</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AF6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG6" s="6">
+      <c r="AG6" s="5">
         <v>1418.38</v>
       </c>
-      <c r="AH6" s="32">
+      <c r="AH6" s="26">
         <v>3.62175</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="21">
+      <c r="B7" s="18">
         <v>50</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>5000</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="24">
         <v>4.3456099999999998</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="25">
         <v>5.5524633333333338</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="25">
         <v>1.36307</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="25">
         <v>1.7864</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I7" s="25">
         <v>1.6823600000000001</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="25">
         <v>2.2852899999999998</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="26">
         <v>1.9302550000000001</v>
       </c>
-      <c r="P7" s="21">
+      <c r="P7" s="18">
         <v>50</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>5000</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="11">
         <v>682.08500000000004</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>184.24</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>2142.8133333333335</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="5">
         <v>2744.32</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>1073.51</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" s="5">
         <v>624.65000000000009</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="12">
         <v>2300.12</v>
       </c>
-      <c r="AD7" s="21">
+      <c r="AD7" s="18">
         <v>750</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="4">
         <v>3000</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG7" s="6">
+      <c r="AG7" s="5">
         <v>1204.75</v>
       </c>
-      <c r="AH7" s="32">
+      <c r="AH7" s="26">
         <v>4.6652300000000002</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="21">
+      <c r="B8" s="18">
         <v>100</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>2000</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="24">
         <v>5.3819249999999998</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="25">
         <v>6.4869633333333336</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="25">
         <v>1.7061866666666665</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="25">
         <v>2.0725099999999999</v>
       </c>
-      <c r="I8" s="31">
+      <c r="I8" s="25">
         <v>2.1593566666666666</v>
       </c>
-      <c r="J8" s="31">
+      <c r="J8" s="25">
         <v>2.7209050000000001</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="26">
         <v>2.2690800000000002</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="18">
         <v>100</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="4">
         <v>2000</v>
       </c>
-      <c r="R8" s="22" t="s">
+      <c r="R8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="11">
         <v>632.68499999999995</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>182.95666666666668</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8" s="5">
         <v>2065.5</v>
       </c>
-      <c r="V8" s="6">
+      <c r="V8" s="5">
         <v>2708.69</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>1070.3700000000001</v>
       </c>
-      <c r="X8" s="6">
+      <c r="X8" s="5">
         <v>619.67000000000007</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="12">
         <v>2184.9300000000003</v>
       </c>
-      <c r="AD8" s="21">
+      <c r="AD8" s="18">
         <v>1000</v>
       </c>
-      <c r="AE8" s="5">
+      <c r="AE8" s="4">
         <v>3000</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AF8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG8" s="6">
+      <c r="AG8" s="5">
         <v>887.43</v>
       </c>
-      <c r="AH8" s="32">
+      <c r="AH8" s="26">
         <v>6.22037</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>500</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>2000</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="24">
         <v>16.920169999999999</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="25">
         <v>12.769426666666668</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="25">
         <v>3.6066833333333332</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="25">
         <v>3.9934799999999999</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="25">
         <v>6.2394800000000004</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="25">
         <v>3.9458350000000002</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="26">
         <v>4.7490550000000002</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="18">
         <v>500</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="4">
         <v>2000</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="11">
         <v>344.81</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>176.76</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9" s="5">
         <v>1533.7633333333333</v>
       </c>
-      <c r="V9" s="6">
+      <c r="V9" s="5">
         <v>2296.17</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>964.3066666666665</v>
       </c>
-      <c r="X9" s="6">
+      <c r="X9" s="5">
         <v>666.03500000000008</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="12">
         <v>1389.3850000000002</v>
       </c>
-      <c r="AD9" s="21">
+      <c r="AD9" s="18">
         <v>1250</v>
       </c>
-      <c r="AE9" s="5">
+      <c r="AE9" s="4">
         <v>3000</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AF9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG9" s="6">
+      <c r="AG9" s="5">
         <v>763.34</v>
       </c>
-      <c r="AH9" s="32">
+      <c r="AH9" s="26">
         <v>7.7671299999999999</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="21">
+      <c r="B10" s="18">
         <v>1000</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>1500</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="24">
         <v>29.718174999999999</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="25">
         <v>21.182559999999999</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="25">
         <v>6.34084</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="25">
         <v>5.7236500000000001</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="25">
         <v>7.5276466666666666</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="25">
         <v>5.7932550000000003</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="26">
         <v>8.0695999999999994</v>
       </c>
-      <c r="P10" s="21">
+      <c r="P10" s="18">
         <v>1000</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>1500</v>
       </c>
-      <c r="R10" s="22" t="s">
+      <c r="R10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="11">
         <v>239.63</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>168.31000000000003</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="5">
         <v>893.69333333333327</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="5">
         <v>1813.6</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>877.29666666666662</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="5">
         <v>663.71499999999992</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="12">
         <v>781.08999999999992</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AD10" s="18">
         <v>1500</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="4">
         <v>3000</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="5">
         <v>682.45</v>
       </c>
-      <c r="AH10" s="32">
+      <c r="AH10" s="26">
         <v>9.2851499999999998</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="21">
+      <c r="B11" s="18">
         <v>5000</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>1500</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="24">
         <v>305.43700999999999</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="25">
         <v>76.290260000000004</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="25">
         <v>43.35622</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H11" s="25">
         <v>25.992360000000001</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="25">
         <v>30.980329999999999</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="25">
         <v>27.478909999999999</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="26">
         <v>41.131525000000003</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P11" s="18">
         <v>5000</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="4">
         <v>1500</v>
       </c>
-      <c r="R11" s="22" t="s">
+      <c r="R11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="11">
         <v>31.484999999999999</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>116.49333333333334</v>
       </c>
-      <c r="U11" s="6">
+      <c r="U11" s="5">
         <v>198.64000000000001</v>
       </c>
-      <c r="V11" s="6">
+      <c r="V11" s="5">
         <v>353.04</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="5">
         <v>292</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="5">
         <v>291.16999999999996</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="12">
         <v>211.02500000000001</v>
       </c>
-      <c r="AD11" s="21">
+      <c r="AD11" s="18">
         <v>1750</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="4">
         <v>3000</v>
       </c>
-      <c r="AF11" s="5" t="s">
+      <c r="AF11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG11" s="6">
+      <c r="AG11" s="5">
         <v>607.16</v>
       </c>
-      <c r="AH11" s="32">
+      <c r="AH11" s="26">
         <v>11.04105</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>10000</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>500</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="24">
         <v>839.59811999999999</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="25">
         <v>142.79964333333334</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="25">
         <v>125.68190333333334</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="25">
         <v>66.4041</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="25">
         <v>73.082229999999996</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="25">
         <v>63.737879999999997</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="26">
         <v>92.832054999999997</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="18">
         <v>10000</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>500</v>
       </c>
-      <c r="R12" s="22" t="s">
+      <c r="R12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="11">
         <v>11.935</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>65.893333333333331</v>
       </c>
-      <c r="U12" s="6">
+      <c r="U12" s="5">
         <v>74.863333333333344</v>
       </c>
-      <c r="V12" s="6">
+      <c r="V12" s="5">
         <v>145.84</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>130.59</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>139.96</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="12">
         <v>99.19</v>
       </c>
-      <c r="AD12" s="21">
+      <c r="AD12" s="18">
         <v>2000</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE12" s="4">
         <v>3000</v>
       </c>
-      <c r="AF12" s="5" t="s">
+      <c r="AF12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG12" s="6">
+      <c r="AG12" s="5">
         <v>553.03</v>
       </c>
-      <c r="AH12" s="32">
+      <c r="AH12" s="26">
         <v>12.69618</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>7500</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="24">
         <v>0.43558000000000002</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="25">
         <v>0.88612999999999997</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="25">
         <v>0.12968333333333334</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="25">
         <v>5.2679999999999998E-2</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="25">
         <v>3.7083333333333336E-2</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="25">
         <v>0.1157</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="26">
         <v>0.141545</v>
       </c>
-      <c r="P13" s="21">
+      <c r="P13" s="18">
         <v>0</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="4">
         <v>7500</v>
       </c>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="11">
         <v>719.52</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>185.99666666666667</v>
       </c>
-      <c r="U13" s="6">
+      <c r="U13" s="5">
         <v>2504.5433333333331</v>
       </c>
-      <c r="V13" s="6">
+      <c r="V13" s="5">
         <v>2826.81</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>1141.9199999999998</v>
       </c>
-      <c r="X13" s="6">
+      <c r="X13" s="5">
         <v>544.28500000000008</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="12">
         <v>2676.9449999999997</v>
       </c>
-      <c r="AD13" s="21">
+      <c r="AD13" s="18">
         <v>2250</v>
       </c>
-      <c r="AE13" s="5">
+      <c r="AE13" s="4">
         <v>3000</v>
       </c>
-      <c r="AF13" s="5" t="s">
+      <c r="AF13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG13" s="6">
+      <c r="AG13" s="5">
         <v>498.82</v>
       </c>
-      <c r="AH13" s="32">
+      <c r="AH13" s="26">
         <v>14.403370000000001</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>5000</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="24">
         <v>0.73025499999999999</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="25">
         <v>1.0060366666666667</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="25">
         <v>0.16867333333333331</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="25">
         <v>8.3860000000000004E-2</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="25">
         <v>6.2106666666666671E-2</v>
       </c>
-      <c r="J14" s="31">
+      <c r="J14" s="25">
         <v>0.14390500000000001</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="26">
         <v>0.14258999999999999</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="18">
         <v>10</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="4">
         <v>5000</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="11">
         <v>706.64</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>186.22666666666666</v>
       </c>
-      <c r="U14" s="6">
+      <c r="U14" s="5">
         <v>2471.61</v>
       </c>
-      <c r="V14" s="6">
+      <c r="V14" s="5">
         <v>2816.09</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <v>1137.2099999999998</v>
       </c>
-      <c r="X14" s="6">
+      <c r="X14" s="5">
         <v>534.15499999999997</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="12">
         <v>2874.9449999999997</v>
       </c>
-      <c r="AD14" s="21">
+      <c r="AD14" s="18">
         <v>2500</v>
       </c>
-      <c r="AE14" s="5">
+      <c r="AE14" s="4">
         <v>3000</v>
       </c>
-      <c r="AF14" s="5" t="s">
+      <c r="AF14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG14" s="6">
+      <c r="AG14" s="5">
         <v>443.77</v>
       </c>
-      <c r="AH14" s="32">
+      <c r="AH14" s="26">
         <v>16.753920000000001</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <v>50</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>5000</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="24">
         <v>1.0794550000000001</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="25">
         <v>1.5751733333333335</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="25">
         <v>0.29869666666666667</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="25">
         <v>0.18365000000000001</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="25">
         <v>0.17044333333333331</v>
       </c>
-      <c r="J15" s="31">
+      <c r="J15" s="25">
         <v>0.26156000000000001</v>
       </c>
-      <c r="K15" s="32">
+      <c r="K15" s="26">
         <v>0.239095</v>
       </c>
-      <c r="P15" s="21">
+      <c r="P15" s="18">
         <v>50</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="4">
         <v>5000</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="11">
         <v>749.85500000000002</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>186.11666666666667</v>
       </c>
-      <c r="U15" s="6">
+      <c r="U15" s="5">
         <v>2436.14</v>
       </c>
-      <c r="V15" s="6">
+      <c r="V15" s="5">
         <v>2830.94</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>1135.1766666666665</v>
       </c>
-      <c r="X15" s="6">
+      <c r="X15" s="5">
         <v>545.59</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="Y15" s="12">
         <v>2823.9300000000003</v>
       </c>
-      <c r="AD15" s="21">
+      <c r="AD15" s="18">
         <v>2750</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE15" s="4">
         <v>3000</v>
       </c>
-      <c r="AF15" s="5" t="s">
+      <c r="AF15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG15" s="6">
+      <c r="AG15" s="5">
         <v>400.71</v>
       </c>
-      <c r="AH15" s="32">
+      <c r="AH15" s="26">
         <v>18.99933</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>100</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2000</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="24">
         <v>1.82403</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="25">
         <v>2.3114300000000001</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="25">
         <v>0.5729266666666667</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="25">
         <v>0.35593000000000002</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="25">
         <v>0.36239333333333335</v>
       </c>
-      <c r="J16" s="31">
+      <c r="J16" s="25">
         <v>0.45029999999999998</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="26">
         <v>0.45071499999999998</v>
       </c>
-      <c r="P16" s="21">
+      <c r="P16" s="18">
         <v>100</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>2000</v>
       </c>
-      <c r="R16" s="22" t="s">
+      <c r="R16" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="11">
         <v>763.43499999999995</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>185.97</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>2354.0533333333333</v>
       </c>
-      <c r="V16" s="6">
+      <c r="V16" s="5">
         <v>2827.79</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="5">
         <v>1118.5</v>
       </c>
-      <c r="X16" s="6">
+      <c r="X16" s="5">
         <v>579.08500000000004</v>
       </c>
-      <c r="Y16" s="15">
+      <c r="Y16" s="12">
         <v>2801.4949999999999</v>
       </c>
-      <c r="AD16" s="21">
+      <c r="AD16" s="18">
         <v>3000</v>
       </c>
-      <c r="AE16" s="5">
+      <c r="AE16" s="4">
         <v>3000</v>
       </c>
-      <c r="AF16" s="5" t="s">
+      <c r="AF16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="AG16" s="6">
+      <c r="AG16" s="5">
         <v>362.29</v>
       </c>
-      <c r="AH16" s="32">
+      <c r="AH16" s="26">
         <v>21.475549999999998</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>500</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>2000</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="24">
         <v>13.362164999999999</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="25">
         <v>9.924316666666666</v>
       </c>
-      <c r="G17" s="31">
+      <c r="G17" s="25">
         <v>3.7047966666666667</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="25">
         <v>2.4890099999999999</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="25">
         <v>6.1717566666666661</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="25">
         <v>2.7550949999999998</v>
       </c>
-      <c r="K17" s="32">
+      <c r="K17" s="26">
         <v>2.7676949999999998</v>
       </c>
-      <c r="P17" s="21">
+      <c r="P17" s="18">
         <v>500</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>2000</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="11">
         <v>404.82499999999999</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>181.26999999999998</v>
       </c>
-      <c r="U17" s="6">
+      <c r="U17" s="5">
         <v>1524.3466666666666</v>
       </c>
-      <c r="V17" s="6">
+      <c r="V17" s="5">
         <v>2693.51</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="5">
         <v>1042.1933333333334</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>599.47500000000002</v>
       </c>
-      <c r="Y17" s="15">
+      <c r="Y17" s="12">
         <v>2106.88</v>
       </c>
-      <c r="AD17" s="21">
+      <c r="AD17" s="18">
         <v>250</v>
       </c>
-      <c r="AE17" s="5">
+      <c r="AE17" s="4">
         <v>3000</v>
       </c>
-      <c r="AF17" s="5" t="s">
+      <c r="AF17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG17" s="6">
+      <c r="AG17" s="5">
         <v>1881.88</v>
       </c>
-      <c r="AH17" s="32">
+      <c r="AH17" s="26">
         <v>1.85588</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>1000</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>1500</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="24">
         <v>26.021699999999999</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="25">
         <v>20.149126666666668</v>
       </c>
-      <c r="G18" s="31">
+      <c r="G18" s="25">
         <v>7.7888166666666665</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="25">
         <v>5.5784900000000004</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="25">
         <v>7.4529533333333333</v>
       </c>
-      <c r="J18" s="31">
+      <c r="J18" s="25">
         <v>5.823175</v>
       </c>
-      <c r="K18" s="32">
+      <c r="K18" s="26">
         <v>5.8082950000000002</v>
       </c>
-      <c r="P18" s="21">
+      <c r="P18" s="18">
         <v>1000</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <v>1500</v>
       </c>
-      <c r="R18" s="22" t="s">
+      <c r="R18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="11">
         <v>259.71000000000004</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>172.75</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <v>798.67000000000007</v>
       </c>
-      <c r="V18" s="6">
+      <c r="V18" s="5">
         <v>1895.89</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <v>972.62333333333333</v>
       </c>
-      <c r="X18" s="6">
+      <c r="X18" s="5">
         <v>629.12</v>
       </c>
-      <c r="Y18" s="15">
+      <c r="Y18" s="12">
         <v>1083.8049999999998</v>
       </c>
-      <c r="AD18" s="21">
+      <c r="AD18" s="18">
         <v>500</v>
       </c>
-      <c r="AE18" s="5">
+      <c r="AE18" s="4">
         <v>3000</v>
       </c>
-      <c r="AF18" s="5" t="s">
+      <c r="AF18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG18" s="6">
+      <c r="AG18" s="5">
         <v>1530.11</v>
       </c>
-      <c r="AH18" s="32">
+      <c r="AH18" s="26">
         <v>3.3431199999999999</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>5000</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>1500</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="24">
         <v>272.416405</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="25">
         <v>105.35019666666666</v>
       </c>
-      <c r="G19" s="31">
+      <c r="G19" s="25">
         <v>99.719903333333335</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="25">
         <v>60.128749999999997</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="25">
         <v>54.34113</v>
       </c>
-      <c r="J19" s="31">
+      <c r="J19" s="25">
         <v>58.666319999999999</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="26">
         <v>63.143639999999998</v>
       </c>
-      <c r="P19" s="21">
+      <c r="P19" s="18">
         <v>5000</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>1500</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="11">
         <v>35.454999999999998</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>88.066666666666663</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <v>94.006666666666661</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <v>166.19</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <v>173.23000000000002</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <v>155.01999999999998</v>
       </c>
-      <c r="Y19" s="15">
+      <c r="Y19" s="12">
         <v>146.04500000000002</v>
       </c>
-      <c r="AD19" s="21">
+      <c r="AD19" s="18">
         <v>750</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" s="4">
         <v>3000</v>
       </c>
-      <c r="AF19" s="5" t="s">
+      <c r="AF19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG19" s="6">
+      <c r="AG19" s="5">
         <v>1085.31</v>
       </c>
-      <c r="AH19" s="32">
+      <c r="AH19" s="26">
         <v>5.2291499999999997</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="23">
+      <c r="B20" s="20">
         <v>10000</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="21">
         <v>500</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="27">
         <v>821.28286000000003</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="28">
         <v>251.57127666666668</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="28">
         <v>321.20724000000001</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="28">
         <v>180.44336999999999</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="28">
         <v>152.79773333333333</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="28">
         <v>168.27296999999999</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="29">
         <v>187.23247000000001</v>
       </c>
-      <c r="P20" s="23">
+      <c r="P20" s="20">
         <v>10000</v>
       </c>
-      <c r="Q20" s="24">
+      <c r="Q20" s="21">
         <v>500</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="S20" s="16">
+      <c r="S20" s="13">
         <v>12.100000000000001</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20" s="14">
         <v>38.383333333333333</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="14">
         <v>30.516666666666669</v>
       </c>
-      <c r="V20" s="17">
+      <c r="V20" s="14">
         <v>54.73</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="14">
         <v>63.886666666666663</v>
       </c>
-      <c r="X20" s="17">
+      <c r="X20" s="14">
         <v>57.41</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="15">
         <v>51.36</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AD20" s="18">
         <v>1000</v>
       </c>
-      <c r="AE20" s="5">
+      <c r="AE20" s="4">
         <v>3000</v>
       </c>
-      <c r="AF20" s="5" t="s">
+      <c r="AF20" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG20" s="6">
+      <c r="AG20" s="5">
         <v>811.15</v>
       </c>
-      <c r="AH20" s="32">
+      <c r="AH20" s="26">
         <v>7.3798399999999997</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD21" s="21">
+      <c r="AD21" s="18">
         <v>1250</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AE21" s="4">
         <v>3000</v>
       </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AF21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AG21" s="5">
         <v>646.69000000000005</v>
       </c>
-      <c r="AH21" s="32">
+      <c r="AH21" s="26">
         <v>10.269629999999999</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD22" s="21">
+      <c r="AD22" s="18">
         <v>1500</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AE22" s="4">
         <v>3000</v>
       </c>
-      <c r="AF22" s="5" t="s">
+      <c r="AF22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG22" s="6">
+      <c r="AG22" s="5">
         <v>528.12</v>
       </c>
-      <c r="AH22" s="32">
+      <c r="AH22" s="26">
         <v>13.55264</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD23" s="21">
+      <c r="AD23" s="18">
         <v>1750</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AE23" s="4">
         <v>3000</v>
       </c>
-      <c r="AF23" s="5" t="s">
+      <c r="AF23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG23" s="6">
+      <c r="AG23" s="5">
         <v>424.76</v>
       </c>
-      <c r="AH23" s="32">
+      <c r="AH23" s="26">
         <v>17.63111</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D24" s="26"/>
-      <c r="AD24" s="21">
+      <c r="D24" s="23"/>
+      <c r="AD24" s="18">
         <v>2000</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AE24" s="4">
         <v>3000</v>
       </c>
-      <c r="AF24" s="5" t="s">
+      <c r="AF24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG24" s="6">
+      <c r="AG24" s="5">
         <v>369.45</v>
       </c>
-      <c r="AH24" s="32">
+      <c r="AH24" s="26">
         <v>20.897269999999999</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD25" s="21">
+      <c r="AD25" s="18">
         <v>2250</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AE25" s="4">
         <v>3000</v>
       </c>
-      <c r="AF25" s="5" t="s">
+      <c r="AF25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG25" s="6">
+      <c r="AG25" s="5">
         <v>315.57</v>
       </c>
-      <c r="AH25" s="32">
+      <c r="AH25" s="26">
         <v>25.209759999999999</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD26" s="21">
+      <c r="AD26" s="18">
         <v>2500</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AE26" s="4">
         <v>3000</v>
       </c>
-      <c r="AF26" s="5" t="s">
+      <c r="AF26" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG26" s="6">
+      <c r="AG26" s="5">
         <v>273.48</v>
       </c>
-      <c r="AH26" s="32">
+      <c r="AH26" s="26">
         <v>29.93037</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD27" s="21">
+      <c r="AD27" s="18">
         <v>2750</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AE27" s="4">
         <v>3000</v>
       </c>
-      <c r="AF27" s="5" t="s">
+      <c r="AF27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AG27" s="6">
+      <c r="AG27" s="5">
         <v>244.19</v>
       </c>
-      <c r="AH27" s="32">
+      <c r="AH27" s="26">
         <v>34.13617</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AD28" s="23">
+      <c r="AD28" s="20">
         <v>3000</v>
       </c>
-      <c r="AE28" s="24">
+      <c r="AE28" s="21">
         <v>3000</v>
       </c>
-      <c r="AF28" s="24" t="s">
+      <c r="AF28" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="AG28" s="17">
+      <c r="AG28" s="14">
         <v>213.82</v>
       </c>
-      <c r="AH28" s="35">
+      <c r="AH28" s="29">
         <v>39.72954</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD29" s="36"/>
-      <c r="AE29" s="36"/>
-      <c r="AF29" s="36"/>
-      <c r="AG29" s="36"/>
-      <c r="AH29" s="36"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="30"/>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD30" s="36"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="36"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="30"/>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD31" s="36"/>
-      <c r="AE31" s="36"/>
-      <c r="AF31" s="36"/>
-      <c r="AG31" s="36"/>
-      <c r="AH31" s="36"/>
+      <c r="AD31" s="30"/>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="30"/>
+      <c r="AG31" s="30"/>
+      <c r="AH31" s="30"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="36"/>
-      <c r="AF32" s="36"/>
-      <c r="AG32" s="36"/>
-      <c r="AH32" s="36"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="30"/>
     </row>
     <row r="33" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
+      <c r="AD33" s="30"/>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="30"/>
+      <c r="AG33" s="30"/>
+      <c r="AH33" s="30"/>
     </row>
     <row r="34" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
     </row>
     <row r="35" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="36"/>
-      <c r="AF35" s="36"/>
-      <c r="AG35" s="36"/>
-      <c r="AH35" s="36"/>
+      <c r="AD35" s="30"/>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="30"/>
+      <c r="AG35" s="30"/>
+      <c r="AH35" s="30"/>
     </row>
     <row r="36" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
+      <c r="AD36" s="30"/>
+      <c r="AE36" s="30"/>
+      <c r="AF36" s="30"/>
+      <c r="AG36" s="30"/>
+      <c r="AH36" s="30"/>
     </row>
     <row r="37" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
+      <c r="AD37" s="30"/>
+      <c r="AE37" s="30"/>
+      <c r="AF37" s="30"/>
+      <c r="AG37" s="30"/>
+      <c r="AH37" s="30"/>
     </row>
     <row r="38" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
     </row>
     <row r="39" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
+      <c r="AD39" s="30"/>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="30"/>
     </row>
     <row r="40" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
     </row>
     <row r="41" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
     </row>
     <row r="42" spans="30:34" x14ac:dyDescent="0.25">
-      <c r="AD42" s="36"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/Testresults/result.xlsx
+++ b/Documents/Testresults/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merdo\Desktop\BachelorThesis\Documents\Testresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB46351-3E41-4231-8E12-33842CCD235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F0FEE-D585-4B97-8B9A-CA99C7D05DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15587,9 +15587,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16652,8 +16652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Testresults/result.xlsx
+++ b/Documents/Testresults/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Merdo\Desktop\BachelorThesis\Documents\Testresults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321F0FEE-D585-4B97-8B9A-CA99C7D05DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3E83A4-F6F3-4D21-9D04-DBE7C800EA0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -547,7 +547,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [0] objects</a:t>
+              <a:t> with 0 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -592,7 +592,7 @@
           <c:x val="0.12665421490367976"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.70257966616084988"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.65934295583821689"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -780,6 +780,74 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t> (id; [cores; </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>virtual cores</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-DE" baseline="0"/>
+                  <a:t>])</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2390,7 +2458,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [10] objects</a:t>
+              <a:t> with 10 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -2435,7 +2503,7 @@
           <c:x val="0.12665421490367976"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.70257966616084988"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.64291872229664238"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2623,6 +2691,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem (id; [cores; virtual cores])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2915,7 +3038,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [50] objects</a:t>
+              <a:t> with 50 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -2960,7 +3083,7 @@
           <c:x val="0.12665421490367976"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.70257966616084988"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.65951623267008641"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3148,6 +3271,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem (id; [cores; virtual cores])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3440,7 +3618,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [100] objects</a:t>
+              <a:t> with 100 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -3485,7 +3663,7 @@
           <c:x val="0.12665421490367976"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.70257966616084988"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.65386832895888003"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3673,6 +3851,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem (id; [cores; virtual cores])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3965,7 +4198,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [500] objects</a:t>
+              <a:t> with 500 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -4010,7 +4243,7 @@
           <c:x val="0.12665421490367976"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.70257966616084988"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.65951623267008641"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4198,6 +4431,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem (id; [cores; virtual cores])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4490,7 +4778,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [1000] objects</a:t>
+              <a:t> with 1000 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -4535,7 +4823,7 @@
           <c:x val="0.12665421490367976"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.70257966616084988"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.65942388451443568"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4723,6 +5011,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem (id; [cores; virtual cores])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5015,7 +5358,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [5000] objects</a:t>
+              <a:t> with 5000 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -5060,7 +5403,7 @@
           <c:x val="0.1443498325294017"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.68488403389680153"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.65363506032334207"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5248,6 +5591,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem (id; [cores; virtual cores])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5540,7 +5938,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> with [10000] objects</a:t>
+              <a:t> with 10000 objects</a:t>
             </a:r>
             <a:endParaRPr lang="de-DE"/>
           </a:p>
@@ -5585,7 +5983,7 @@
           <c:x val="0.15595831537404392"/>
           <c:y val="0.16720564584102166"/>
           <c:w val="0.68206681501731936"/>
-          <c:h val="0.6816460448836662"/>
+          <c:h val="0.65351672813050266"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -5773,6 +6171,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>testsystem (id; [cores; virtual cores])</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14745,7 +15198,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>198784</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14780,8 +15233,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>425726</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14812,14 +15265,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>210379</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14856,8 +15309,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>425726</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14888,14 +15341,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>210379</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14932,8 +15385,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>425726</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14971,7 +15424,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>210379</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15002,14 +15455,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>99390</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15587,9 +16040,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -16652,8 +17105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:R4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
